--- a/results/random_queries-2.xlsx
+++ b/results/random_queries-2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -109,6 +109,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Taken (s) for Query</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Workload</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -145,13 +165,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.5126136320951207</c:v>
+                    <c:v>3.2606747767908408</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>96.354200738732715</c:v>
+                    <c:v>3.0541774670113719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>99.207257799013888</c:v>
+                    <c:v>78.255657942413322</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -163,13 +183,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>1.5126136320951207</c:v>
+                    <c:v>3.2606747767908408</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>96.354200738732715</c:v>
+                    <c:v>3.0541774670113719</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>99.207257799013888</c:v>
+                    <c:v>78.255657942413322</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -199,13 +219,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.8</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>824.6</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1019</c:v>
+                  <c:v>1052.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -220,11 +240,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67966464"/>
-        <c:axId val="595258752"/>
+        <c:axId val="106947072"/>
+        <c:axId val="116100480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67966464"/>
+        <c:axId val="106947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -233,7 +253,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595258752"/>
+        <c:crossAx val="116100480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -241,7 +261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595258752"/>
+        <c:axId val="116100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67966464"/>
+        <c:crossAx val="106947072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -330,14 +350,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -650,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,57 +692,57 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>222</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>1211</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>1426</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>828</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>969</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
         <v>52</v>
       </c>
-      <c r="C5">
-        <v>1217</v>
-      </c>
       <c r="D5">
-        <v>1444</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>833</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>1034</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,15 +762,15 @@
       </c>
       <c r="B20">
         <f>AVERAGE(B2:B6)</f>
-        <v>46.8</v>
+        <v>36.6</v>
       </c>
       <c r="C20">
         <f>AVERAGE(C2:C6)</f>
-        <v>824.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D20">
         <f>AVERAGE(D2:D6)</f>
-        <v>1019</v>
+        <v>1052.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,15 +779,15 @@
       </c>
       <c r="B21">
         <f>STDEV(B2:B6)</f>
-        <v>7.5630681604756029</v>
+        <v>16.303373883954205</v>
       </c>
       <c r="C21">
         <f>STDEV(C2:C6)</f>
-        <v>481.7710036936636</v>
+        <v>15.270887335056861</v>
       </c>
       <c r="D21">
         <f>STDEV(D2:D6)</f>
-        <v>496.03628899506941</v>
+        <v>391.27828971206662</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,15 +796,15 @@
       </c>
       <c r="B22">
         <f>STDEV(B2:B6)/COUNT(B2:B6)</f>
-        <v>1.5126136320951207</v>
+        <v>3.2606747767908408</v>
       </c>
       <c r="C22">
         <f>STDEV(C2:C6)/COUNT(C2:C6)</f>
-        <v>96.354200738732715</v>
+        <v>3.0541774670113719</v>
       </c>
       <c r="D22">
         <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
-        <v>99.207257799013888</v>
+        <v>78.255657942413322</v>
       </c>
     </row>
   </sheetData>

--- a/results/random_queries-2.xlsx
+++ b/results/random_queries-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>Adaptive</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Number of Row Accesses</t>
   </si>
 </sst>
 </file>
@@ -240,11 +243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106947072"/>
-        <c:axId val="116100480"/>
+        <c:axId val="36005888"/>
+        <c:axId val="530157504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106947072"/>
+        <c:axId val="36005888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +256,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116100480"/>
+        <c:crossAx val="530157504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -261,7 +264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116100480"/>
+        <c:axId val="530157504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106947072"/>
+        <c:crossAx val="36005888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -328,6 +331,652 @@
           <a:p>
             <a:pPr rtl="0">
               <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Row Accesses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2400012400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2430917048145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79830980040000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="60119040"/>
+        <c:axId val="555401216"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Taken (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1052.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="548833792"/>
+        <c:axId val="44246144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60119040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="555401216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555401216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60119040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44246144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="548833792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="548833792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44246144"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Row Accesses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$31:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>240001239999.99994</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>241057228366.20319</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6281586935252.7832</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$31:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>240001239999.99994</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>241057228366.20319</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6281586935252.7832</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2400012400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2430917048145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79830980040000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99103744"/>
+        <c:axId val="550947072"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Taken (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$22:$D$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.2606747767908408</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0541774670113719</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>78.255657942413322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$22:$D$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.2606747767908408</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0541774670113719</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>78.255657942413322</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adaptive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>By Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>By Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1052.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="553753600"/>
+        <c:axId val="550949952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99103744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="550947072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550947072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99103744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550949952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="553753600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="553753600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="550949952"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -373,6 +1022,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295273</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -668,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +1454,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,7 +1482,7 @@
         <v>1052.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,7 +1499,7 @@
         <v>391.27828971206662</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -805,6 +1514,174 @@
       <c r="D22">
         <f>STDEV(D2:D6)/COUNT(D2:D6)</f>
         <v>78.255657942413322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2400012400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2400012400000</v>
+      </c>
+      <c r="C26">
+        <v>2430917048145</v>
+      </c>
+      <c r="D26">
+        <v>79830980040000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>36.6</v>
+      </c>
+      <c r="C27">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D27">
+        <v>1052.8</v>
+      </c>
+      <c r="F27">
+        <v>2430917048145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>79830980040000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1052.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>240001239999.99994</v>
+      </c>
+      <c r="C31">
+        <v>241057228366.20319</v>
+      </c>
+      <c r="D31">
+        <v>6281586935252.7832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>2400012400000</v>
+      </c>
+      <c r="C35">
+        <v>2430917048145</v>
+      </c>
+      <c r="D35">
+        <v>79830980040000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>2400012400000</v>
+      </c>
+      <c r="H35">
+        <v>2430917048145</v>
+      </c>
+      <c r="I35">
+        <v>79830980040000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>36.6</v>
+      </c>
+      <c r="H36">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I36">
+        <v>1052.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>36.6</v>
+      </c>
+      <c r="C37">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D37">
+        <v>1052.8</v>
       </c>
     </row>
   </sheetData>

--- a/results/random_queries-2.xlsx
+++ b/results/random_queries-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="11475" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="11475" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,11 +597,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -931,6 +927,16 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="99103744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -946,6 +952,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="553753600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -976,7 +992,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr sz="1400"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
